--- a/testdata/TestExecution.xlsx
+++ b/testdata/TestExecution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Sno</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -507,7 +501,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -564,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -587,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">

--- a/testdata/TestExecution.xlsx
+++ b/testdata/TestExecution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Playwright-js\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Playwright-js (3)\Playwright-js\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Sno</t>
   </si>
@@ -59,9 +59,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>TS002_AggrementVerfication</t>
-  </si>
-  <si>
     <t>https://test.spendflo.com/</t>
   </si>
   <si>
@@ -74,13 +71,10 @@
     <t>./testdata/Testdata.xlsx</t>
   </si>
   <si>
+    <t>TS002_AddAggrement</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>TS002_AddAggrement</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -160,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,9 +174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -546,19 +537,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -566,59 +557,35 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/testdata/TestExecution.xlsx
+++ b/testdata/TestExecution.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
-    <t>Sno</t>
-  </si>
-  <si>
     <t>Testcase ID</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>SNo</t>
   </si>
 </sst>
 </file>
@@ -492,12 +492,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.06640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
@@ -508,71 +508,71 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
